--- a/public/downloads/mk-tournament-figures.xlsx
+++ b/public/downloads/mk-tournament-figures.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t xml:space="preserve">Mage Knight Tournament Figures Checklist</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Amazon Mancatcher</t>
   </si>
   <si>
-    <t xml:space="preserve">Catapult</t>
+    <t xml:space="preserve">Catapult/Stonethrower</t>
   </si>
   <si>
     <t xml:space="preserve">(Light)</t>
@@ -109,9 +109,6 @@
     <t xml:space="preserve">Chromazar</t>
   </si>
   <si>
-    <t xml:space="preserve">Chrystal Protector</t>
-  </si>
-  <si>
     <t xml:space="preserve">Demi Magus</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t xml:space="preserve">Grave Robber</t>
   </si>
   <si>
-    <t xml:space="preserve">Heavy Stonethrower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imp</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t xml:space="preserve">Solonavi Striker</t>
   </si>
   <si>
-    <t xml:space="preserve">Stonethrower</t>
-  </si>
-  <si>
     <t xml:space="preserve">Technomancer</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t xml:space="preserve">Wandering Mochoch</t>
   </si>
   <si>
-    <t xml:space="preserve">War Hatched Krugg</t>
-  </si>
-  <si>
     <t xml:space="preserve">War Hatchetkrugg</t>
   </si>
   <si>
@@ -241,7 +229,7 @@
     <t xml:space="preserve">Zombie Baron</t>
   </si>
   <si>
-    <t xml:space="preserve">71 entries total</t>
+    <t xml:space="preserve">67 entries total</t>
   </si>
 </sst>
 </file>
@@ -655,7 +643,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -941,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>12</v>
@@ -957,7 +945,7 @@
         <v>16</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
@@ -967,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
@@ -983,7 +971,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
@@ -995,9 +983,7 @@
       <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
     </row>
@@ -1008,7 +994,9 @@
       <c r="B29" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
     </row>
@@ -1019,9 +1007,7 @@
       <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
     </row>
@@ -1032,7 +1018,9 @@
       <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
@@ -1041,10 +1029,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
@@ -1057,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
@@ -1070,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
@@ -1093,9 +1081,11 @@
         <v>1</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
     </row>
@@ -1104,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
@@ -1117,11 +1107,9 @@
         <v>1</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
     </row>
@@ -1130,11 +1118,9 @@
         <v>1</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
     </row>
@@ -1145,7 +1131,9 @@
       <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
     </row>
@@ -1156,7 +1144,9 @@
       <c r="B41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
@@ -1165,10 +1155,10 @@
         <v>1</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
@@ -1180,9 +1170,7 @@
       <c r="B43" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
@@ -1191,11 +1179,9 @@
         <v>1</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
     </row>
@@ -1206,7 +1192,9 @@
       <c r="B45" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
     </row>
@@ -1217,7 +1205,9 @@
       <c r="B46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
     </row>
@@ -1228,9 +1218,7 @@
       <c r="B47" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
     </row>
@@ -1241,9 +1229,7 @@
       <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
     </row>
@@ -1265,7 +1251,9 @@
       <c r="B50" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C50" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
     </row>
@@ -1276,7 +1264,9 @@
       <c r="B51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
     </row>
@@ -1285,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
@@ -1298,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
@@ -1311,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
@@ -1324,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="7"/>
@@ -1337,10 +1327,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
@@ -1350,10 +1340,10 @@
         <v>1</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
@@ -1365,9 +1355,7 @@
       <c r="B58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
     </row>
@@ -1391,7 +1379,9 @@
       <c r="B60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
     </row>
@@ -1402,9 +1392,7 @@
       <c r="B61" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="7"/>
     </row>
@@ -1426,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
@@ -1439,9 +1427,11 @@
         <v>1</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
     </row>
@@ -1450,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="7"/>
@@ -1463,10 +1453,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
@@ -1476,11 +1466,9 @@
         <v>1</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>19</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="7"/>
     </row>
@@ -1492,7 +1480,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
@@ -1504,9 +1492,7 @@
       <c r="B69" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="7"/>
     </row>
@@ -1517,9 +1503,7 @@
       <c r="B70" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
     </row>
@@ -1541,63 +1525,17 @@
       <c r="B72" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" s="7" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="n">
+        <f aca="false">SUM(A6:A72)</f>
+        <v>77</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="7"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="7"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="n">
-        <f aca="false">SUM(A6:A76)</f>
-        <v>81</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
